--- a/roster/Fordham Hockey Roster.xlsx
+++ b/roster/Fordham Hockey Roster.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="462">
   <si>
     <t>2021-22 ROSTER</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>St. Ignatius Prep / Chicago, IL</t>
+  </si>
+  <si>
+    <t>Aiden Denning</t>
+  </si>
+  <si>
+    <t>Bronxville / Eastchester, NY</t>
   </si>
   <si>
     <t>Anthony DeMario</t>
@@ -2749,7 +2755,7 @@
     </row>
     <row r="57">
       <c r="A57" s="19">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B57" s="20" t="s">
         <v>69</v>
@@ -2758,10 +2764,10 @@
         <v>22</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E57" s="22">
-        <v>180.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="58">
@@ -2772,7 +2778,7 @@
     </row>
     <row r="59">
       <c r="A59" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B59" s="18" t="s">
         <v>70</v>
@@ -2783,33 +2789,33 @@
     </row>
     <row r="60">
       <c r="A60" s="19">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="B60" s="20" t="s">
         <v>71</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E60" s="22">
-        <v>169.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="16" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="E61" s="7"/>
     </row>
     <row r="62">
       <c r="A62" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -2817,10 +2823,10 @@
     </row>
     <row r="63">
       <c r="A63" s="19">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C63" s="21" t="s">
         <v>16</v>
@@ -2829,21 +2835,21 @@
         <v>17</v>
       </c>
       <c r="E63" s="22">
-        <v>175.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E64" s="7"/>
     </row>
     <row r="65">
       <c r="A65" s="17" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -2851,33 +2857,33 @@
     </row>
     <row r="66">
       <c r="A66" s="19">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E66" s="22">
-        <v>155.0</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E67" s="7"/>
     </row>
     <row r="68">
       <c r="A68" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B68" s="23" t="s">
-        <v>80</v>
+        <v>38</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>78</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -2885,33 +2891,33 @@
     </row>
     <row r="69">
       <c r="A69" s="19">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C69" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E69" s="22">
-        <v>187.0</v>
+        <v>155.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="16" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="E70" s="7"/>
     </row>
     <row r="71">
       <c r="A71" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>83</v>
+        <v>19</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -2919,30 +2925,30 @@
     </row>
     <row r="72">
       <c r="A72" s="19">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="B72" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C72" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D72" s="21" t="s">
-        <v>41</v>
-      </c>
       <c r="E72" s="22">
-        <v>145.0</v>
+        <v>187.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="16" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="E73" s="7"/>
     </row>
     <row r="74">
       <c r="A74" s="17" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B74" s="18" t="s">
         <v>85</v>
@@ -2953,7 +2959,7 @@
     </row>
     <row r="75">
       <c r="A75" s="19">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="B75" s="20" t="s">
         <v>86</v>
@@ -2962,21 +2968,21 @@
         <v>22</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E75" s="22">
-        <v>180.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="16" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E76" s="7"/>
     </row>
     <row r="77">
       <c r="A77" s="17" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B77" s="18" t="s">
         <v>87</v>
@@ -2987,7 +2993,7 @@
     </row>
     <row r="78">
       <c r="A78" s="19">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="B78" s="20" t="s">
         <v>88</v>
@@ -2996,21 +3002,21 @@
         <v>22</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E78" s="22">
-        <v>190.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="16" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="E79" s="7"/>
     </row>
     <row r="80">
       <c r="A80" s="17" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B80" s="18" t="s">
         <v>89</v>
@@ -3021,33 +3027,33 @@
     </row>
     <row r="81">
       <c r="A81" s="19">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="B81" s="20" t="s">
         <v>90</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E81" s="22">
-        <v>160.0</v>
+        <v>190.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="16" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="E82" s="7"/>
     </row>
     <row r="83">
       <c r="A83" s="17" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
@@ -3055,67 +3061,67 @@
     </row>
     <row r="84">
       <c r="A84" s="19">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C84" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D84" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84" s="22">
+        <v>160.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E85" s="7"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86" s="18" t="s">
         <v>94</v>
-      </c>
-      <c r="E84" s="22">
-        <v>145.0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E85" s="7"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" s="18" t="s">
-        <v>95</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
       <c r="E86" s="11"/>
     </row>
     <row r="87">
-      <c r="A87" s="26">
-        <v>35.0</v>
-      </c>
-      <c r="B87" s="27" t="s">
+      <c r="A87" s="19">
+        <v>31.0</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C87" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D87" s="28" t="s">
+      <c r="E87" s="22">
+        <v>145.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="E87" s="29">
-        <v>195.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E88" s="7"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B89" s="30" t="s">
-        <v>99</v>
       </c>
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
@@ -3123,102 +3129,138 @@
     </row>
     <row r="90">
       <c r="A90" s="26">
-        <v>40.0</v>
+        <v>35.0</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C90" s="28" t="s">
         <v>10</v>
       </c>
       <c r="D90" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E90" s="29">
+        <v>195.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B92" s="30" t="s">
         <v>101</v>
-      </c>
-      <c r="E90" s="29">
-        <v>172.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E91" s="7"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B92" s="30" t="s">
-        <v>103</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
       <c r="E92" s="11"/>
     </row>
+    <row r="93">
+      <c r="A93" s="26">
+        <v>40.0</v>
+      </c>
+      <c r="B93" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C93" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E93" s="29">
+        <v>172.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E94" s="7"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="A49:E49"/>
+  <mergeCells count="64">
     <mergeCell ref="B56:E56"/>
     <mergeCell ref="A55:E55"/>
-    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="B44:E44"/>
     <mergeCell ref="B47:E47"/>
     <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="B62:E62"/>
     <mergeCell ref="A46:E46"/>
     <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="B65:E65"/>
     <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A64:E64"/>
     <mergeCell ref="A70:E70"/>
-    <mergeCell ref="B77:E77"/>
     <mergeCell ref="A76:E76"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="B41:E41"/>
     <mergeCell ref="B86:E86"/>
     <mergeCell ref="B89:E89"/>
     <mergeCell ref="B92:E92"/>
-    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="B95:E95"/>
     <mergeCell ref="A85:E85"/>
     <mergeCell ref="A88:E88"/>
     <mergeCell ref="A91:E91"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="A67:E67"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3245,7 +3287,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="71" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -3265,16 +3307,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3">
@@ -3282,7 +3324,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C3" s="74" t="s">
         <v>10</v>
@@ -3297,7 +3339,7 @@
         <v>38</v>
       </c>
       <c r="G3" s="75" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4">
@@ -3305,13 +3347,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="77" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C4" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E4" s="78">
         <v>155.0</v>
@@ -3320,7 +3362,7 @@
         <v>38</v>
       </c>
       <c r="G4" s="79" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5">
@@ -3328,13 +3370,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="77" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C5" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E5" s="78">
         <v>175.0</v>
@@ -3343,7 +3385,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="79" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6">
@@ -3351,7 +3393,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="77" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C6" s="78" t="s">
         <v>22</v>
@@ -3366,7 +3408,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="79" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7">
@@ -3374,13 +3416,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="77" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C7" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E7" s="78">
         <v>160.0</v>
@@ -3389,7 +3431,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8">
@@ -3397,13 +3439,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C8" s="78" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E8" s="78">
         <v>190.0</v>
@@ -3412,7 +3454,7 @@
         <v>28</v>
       </c>
       <c r="G8" s="79" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9">
@@ -3420,7 +3462,7 @@
         <v>9.0</v>
       </c>
       <c r="B9" s="77" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C9" s="78" t="s">
         <v>16</v>
@@ -3435,7 +3477,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="79" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10">
@@ -3443,13 +3485,13 @@
         <v>10.0</v>
       </c>
       <c r="B10" s="77" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C10" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E10" s="78">
         <v>155.0</v>
@@ -3458,7 +3500,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="79" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11">
@@ -3466,7 +3508,7 @@
         <v>11.0</v>
       </c>
       <c r="B11" s="77" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C11" s="78" t="s">
         <v>16</v>
@@ -3481,7 +3523,7 @@
         <v>28</v>
       </c>
       <c r="G11" s="79" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12">
@@ -3489,13 +3531,13 @@
         <v>12.0</v>
       </c>
       <c r="B12" s="77" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C12" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E12" s="78">
         <v>160.0</v>
@@ -3504,7 +3546,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="79" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13">
@@ -3512,13 +3554,13 @@
         <v>13.0</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C13" s="78" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E13" s="78">
         <v>185.0</v>
@@ -3527,7 +3569,7 @@
         <v>38</v>
       </c>
       <c r="G13" s="79" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14">
@@ -3535,13 +3577,13 @@
         <v>14.0</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C14" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E14" s="78">
         <v>180.0</v>
@@ -3550,7 +3592,7 @@
         <v>38</v>
       </c>
       <c r="G14" s="79" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15">
@@ -3558,13 +3600,13 @@
         <v>15.0</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C15" s="78" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E15" s="78">
         <v>210.0</v>
@@ -3573,7 +3615,7 @@
         <v>28</v>
       </c>
       <c r="G15" s="79" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16">
@@ -3581,13 +3623,13 @@
         <v>16.0</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C16" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E16" s="78">
         <v>185.0</v>
@@ -3596,7 +3638,7 @@
         <v>28</v>
       </c>
       <c r="G16" s="79" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17">
@@ -3604,13 +3646,13 @@
         <v>17.0</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C17" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E17" s="78">
         <v>170.0</v>
@@ -3619,7 +3661,7 @@
         <v>19</v>
       </c>
       <c r="G17" s="79" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18">
@@ -3627,7 +3669,7 @@
         <v>19.0</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C18" s="78" t="s">
         <v>22</v>
@@ -3642,7 +3684,7 @@
         <v>13</v>
       </c>
       <c r="G18" s="79" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19">
@@ -3650,7 +3692,7 @@
         <v>21.0</v>
       </c>
       <c r="B19" s="77" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C19" s="78" t="s">
         <v>22</v>
@@ -3665,7 +3707,7 @@
         <v>38</v>
       </c>
       <c r="G19" s="79" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20">
@@ -3673,13 +3715,13 @@
         <v>22.0</v>
       </c>
       <c r="B20" s="77" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C20" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E20" s="78">
         <v>155.0</v>
@@ -3688,7 +3730,7 @@
         <v>13</v>
       </c>
       <c r="G20" s="79" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21">
@@ -3696,13 +3738,13 @@
         <v>23.0</v>
       </c>
       <c r="B21" s="77" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C21" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E21" s="78">
         <v>155.0</v>
@@ -3711,7 +3753,7 @@
         <v>13</v>
       </c>
       <c r="G21" s="79" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22">
@@ -3719,13 +3761,13 @@
         <v>24.0</v>
       </c>
       <c r="B22" s="77" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C22" s="78" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="78" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E22" s="78">
         <v>200.0</v>
@@ -3734,7 +3776,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="79" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23">
@@ -3742,13 +3784,13 @@
         <v>25.0</v>
       </c>
       <c r="B23" s="77" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C23" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E23" s="78">
         <v>165.0</v>
@@ -3757,7 +3799,7 @@
         <v>38</v>
       </c>
       <c r="G23" s="79" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
@@ -3765,7 +3807,7 @@
         <v>26.0</v>
       </c>
       <c r="B24" s="77" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C24" s="78" t="s">
         <v>16</v>
@@ -3780,7 +3822,7 @@
         <v>28</v>
       </c>
       <c r="G24" s="79" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25">
@@ -3788,13 +3830,13 @@
         <v>27.0</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C25" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E25" s="78">
         <v>160.0</v>
@@ -3803,7 +3845,7 @@
         <v>13</v>
       </c>
       <c r="G25" s="79" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26">
@@ -3811,13 +3853,13 @@
         <v>29.0</v>
       </c>
       <c r="B26" s="77" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C26" s="78" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="78" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E26" s="78">
         <v>170.0</v>
@@ -3826,7 +3868,7 @@
         <v>19</v>
       </c>
       <c r="G26" s="79" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27">
@@ -3834,7 +3876,7 @@
         <v>31.0</v>
       </c>
       <c r="B27" s="77" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C27" s="78" t="s">
         <v>10</v>
@@ -3849,7 +3891,7 @@
         <v>28</v>
       </c>
       <c r="G27" s="79" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28">
@@ -3857,13 +3899,13 @@
         <v>35.0</v>
       </c>
       <c r="B28" s="77" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C28" s="78" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="78" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E28" s="78">
         <v>200.0</v>
@@ -3872,7 +3914,7 @@
         <v>61</v>
       </c>
       <c r="G28" s="79" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29">
@@ -3880,13 +3922,13 @@
         <v>37.0</v>
       </c>
       <c r="B29" s="89" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C29" s="90" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="90" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E29" s="90">
         <v>155.0</v>
@@ -3895,7 +3937,7 @@
         <v>28</v>
       </c>
       <c r="G29" s="91" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -3927,7 +3969,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="71" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -3947,16 +3989,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3">
@@ -3964,10 +4006,10 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C3" s="74" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D3" s="74" t="s">
         <v>51</v>
@@ -3979,7 +4021,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="75" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4">
@@ -3987,13 +4029,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="77" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E4" s="78">
         <v>155.0</v>
@@ -4002,7 +4044,7 @@
         <v>28</v>
       </c>
       <c r="G4" s="79" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5">
@@ -4010,10 +4052,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="77" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D5" s="78" t="s">
         <v>51</v>
@@ -4025,7 +4067,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="79" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6">
@@ -4033,10 +4075,10 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="77" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D6" s="78" t="s">
         <v>51</v>
@@ -4048,7 +4090,7 @@
         <v>38</v>
       </c>
       <c r="G6" s="79" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7">
@@ -4056,13 +4098,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="77" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E7" s="78">
         <v>160.0</v>
@@ -4071,7 +4113,7 @@
         <v>19</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8">
@@ -4079,10 +4121,10 @@
         <v>9.0</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D8" s="78" t="s">
         <v>51</v>
@@ -4094,7 +4136,7 @@
         <v>19</v>
       </c>
       <c r="G8" s="79" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9">
@@ -4102,13 +4144,13 @@
         <v>10.0</v>
       </c>
       <c r="B9" s="77" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D9" s="78" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E9" s="78">
         <v>155.0</v>
@@ -4117,7 +4159,7 @@
         <v>19</v>
       </c>
       <c r="G9" s="79" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10">
@@ -4125,13 +4167,13 @@
         <v>11.0</v>
       </c>
       <c r="B10" s="77" t="s">
+        <v>309</v>
+      </c>
+      <c r="C10" s="78" t="s">
         <v>307</v>
       </c>
-      <c r="C10" s="78" t="s">
-        <v>305</v>
-      </c>
       <c r="D10" s="78" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E10" s="78">
         <v>215.0</v>
@@ -4140,7 +4182,7 @@
         <v>38</v>
       </c>
       <c r="G10" s="79" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11">
@@ -4148,13 +4190,13 @@
         <v>12.0</v>
       </c>
       <c r="B11" s="77" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D11" s="78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E11" s="78">
         <v>160.0</v>
@@ -4163,7 +4205,7 @@
         <v>19</v>
       </c>
       <c r="G11" s="79" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12">
@@ -4171,13 +4213,13 @@
         <v>13.0</v>
       </c>
       <c r="B12" s="77" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E12" s="78">
         <v>185.0</v>
@@ -4186,7 +4228,7 @@
         <v>28</v>
       </c>
       <c r="G12" s="79" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13">
@@ -4194,13 +4236,13 @@
         <v>14.0</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E13" s="78">
         <v>180.0</v>
@@ -4209,7 +4251,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="79" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14">
@@ -4217,10 +4259,10 @@
         <v>15.0</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D14" s="78" t="s">
         <v>44</v>
@@ -4232,7 +4274,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="79" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15">
@@ -4240,13 +4282,13 @@
         <v>17.0</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E15" s="78">
         <v>170.0</v>
@@ -4255,7 +4297,7 @@
         <v>38</v>
       </c>
       <c r="G15" s="79" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16">
@@ -4263,10 +4305,10 @@
         <v>19.0</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D16" s="78" t="s">
         <v>51</v>
@@ -4278,7 +4320,7 @@
         <v>19</v>
       </c>
       <c r="G16" s="79" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17">
@@ -4286,13 +4328,13 @@
         <v>22.0</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C17" s="78" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E17" s="78">
         <v>155.0</v>
@@ -4301,7 +4343,7 @@
         <v>19</v>
       </c>
       <c r="G17" s="79" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18">
@@ -4309,13 +4351,13 @@
         <v>23.0</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C18" s="78" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E18" s="78">
         <v>155.0</v>
@@ -4324,7 +4366,7 @@
         <v>19</v>
       </c>
       <c r="G18" s="79" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19">
@@ -4332,13 +4374,13 @@
         <v>24.0</v>
       </c>
       <c r="B19" s="77" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E19" s="78">
         <v>220.0</v>
@@ -4347,7 +4389,7 @@
         <v>19</v>
       </c>
       <c r="G19" s="79" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20">
@@ -4355,13 +4397,13 @@
         <v>25.0</v>
       </c>
       <c r="B20" s="77" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E20" s="78">
         <v>165.0</v>
@@ -4370,7 +4412,7 @@
         <v>28</v>
       </c>
       <c r="G20" s="79" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21">
@@ -4378,13 +4420,13 @@
         <v>26.0</v>
       </c>
       <c r="B21" s="77" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C21" s="78" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E21" s="78">
         <v>180.0</v>
@@ -4393,7 +4435,7 @@
         <v>38</v>
       </c>
       <c r="G21" s="79" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22">
@@ -4401,13 +4443,13 @@
         <v>27.0</v>
       </c>
       <c r="B22" s="77" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D22" s="78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E22" s="78">
         <v>160.0</v>
@@ -4416,7 +4458,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="79" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23">
@@ -4424,13 +4466,13 @@
         <v>28.0</v>
       </c>
       <c r="B23" s="77" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C23" s="78" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E23" s="78">
         <v>225.0</v>
@@ -4439,7 +4481,7 @@
         <v>28</v>
       </c>
       <c r="G23" s="79" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24">
@@ -4447,13 +4489,13 @@
         <v>29.0</v>
       </c>
       <c r="B24" s="77" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C24" s="78" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D24" s="78" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E24" s="78">
         <v>170.0</v>
@@ -4462,7 +4504,7 @@
         <v>38</v>
       </c>
       <c r="G24" s="79" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25">
@@ -4470,7 +4512,7 @@
         <v>33.0</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C25" s="78" t="s">
         <v>10</v>
@@ -4485,7 +4527,7 @@
         <v>13</v>
       </c>
       <c r="G25" s="79" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26">
@@ -4493,7 +4535,7 @@
         <v>40.0</v>
       </c>
       <c r="B26" s="77" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C26" s="78" t="s">
         <v>10</v>
@@ -4508,19 +4550,19 @@
         <v>38</v>
       </c>
       <c r="G26" s="79" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="92"/>
       <c r="B27" s="89" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C27" s="90" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D27" s="90" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E27" s="90">
         <v>175.0</v>
@@ -4529,7 +4571,7 @@
         <v>38</v>
       </c>
       <c r="G27" s="91" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -4561,7 +4603,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="71" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -4581,16 +4623,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3">
@@ -4598,7 +4640,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C3" s="74" t="s">
         <v>10</v>
@@ -4613,7 +4655,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="75" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4">
@@ -4621,10 +4663,10 @@
         <v>4.0</v>
       </c>
       <c r="B4" s="77" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D4" s="96" t="s">
         <v>51</v>
@@ -4636,7 +4678,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="79" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5">
@@ -4644,7 +4686,7 @@
         <v>5.0</v>
       </c>
       <c r="B5" s="77" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C5" s="78" t="s">
         <v>22</v>
@@ -4659,7 +4701,7 @@
         <v>28</v>
       </c>
       <c r="G5" s="79" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6">
@@ -4667,13 +4709,13 @@
         <v>6.0</v>
       </c>
       <c r="B6" s="77" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C6" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="96" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E6" s="96">
         <v>160.0</v>
@@ -4682,7 +4724,7 @@
         <v>38</v>
       </c>
       <c r="G6" s="79" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7">
@@ -4690,10 +4732,10 @@
         <v>9.0</v>
       </c>
       <c r="B7" s="77" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D7" s="96" t="s">
         <v>51</v>
@@ -4705,7 +4747,7 @@
         <v>38</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8">
@@ -4713,13 +4755,13 @@
         <v>10.0</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C8" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="96" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E8" s="96">
         <v>195.0</v>
@@ -4728,7 +4770,7 @@
         <v>28</v>
       </c>
       <c r="G8" s="79" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9">
@@ -4736,13 +4778,13 @@
         <v>11.0</v>
       </c>
       <c r="B9" s="77" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C9" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="96" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E9" s="96">
         <v>150.0</v>
@@ -4751,7 +4793,7 @@
         <v>19</v>
       </c>
       <c r="G9" s="79" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10">
@@ -4759,13 +4801,13 @@
         <v>12.0</v>
       </c>
       <c r="B10" s="77" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C10" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="96" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E10" s="96">
         <v>160.0</v>
@@ -4774,7 +4816,7 @@
         <v>38</v>
       </c>
       <c r="G10" s="79" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11">
@@ -4782,22 +4824,22 @@
         <v>14.0</v>
       </c>
       <c r="B11" s="77" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C11" s="78" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="96" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E11" s="96">
         <v>175.0</v>
       </c>
       <c r="F11" s="78" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G11" s="79" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12">
@@ -4805,7 +4847,7 @@
         <v>15.0</v>
       </c>
       <c r="B12" s="77" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C12" s="78" t="s">
         <v>22</v>
@@ -4820,7 +4862,7 @@
         <v>19</v>
       </c>
       <c r="G12" s="79" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13">
@@ -4828,13 +4870,13 @@
         <v>16.0</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C13" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="96" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E13" s="96">
         <v>165.0</v>
@@ -4843,7 +4885,7 @@
         <v>38</v>
       </c>
       <c r="G13" s="79" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14">
@@ -4851,13 +4893,13 @@
         <v>17.0</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C14" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="96" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E14" s="96">
         <v>170.0</v>
@@ -4866,7 +4908,7 @@
         <v>28</v>
       </c>
       <c r="G14" s="79" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15">
@@ -4874,7 +4916,7 @@
         <v>19.0</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C15" s="78" t="s">
         <v>22</v>
@@ -4889,7 +4931,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="79" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16">
@@ -4897,13 +4939,13 @@
         <v>20.0</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C16" s="78" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="96" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E16" s="96">
         <v>180.0</v>
@@ -4912,7 +4954,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="79" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17">
@@ -4920,13 +4962,13 @@
         <v>21.0</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C17" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="96" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E17" s="96">
         <v>175.0</v>
@@ -4935,7 +4977,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="79" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18">
@@ -4943,13 +4985,13 @@
         <v>23.0</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C18" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="96" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E18" s="96">
         <v>155.0</v>
@@ -4958,7 +5000,7 @@
         <v>38</v>
       </c>
       <c r="G18" s="79" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19">
@@ -4966,13 +5008,13 @@
         <v>26.0</v>
       </c>
       <c r="B19" s="77" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C19" s="78" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="96" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E19" s="96">
         <v>180.0</v>
@@ -4981,7 +5023,7 @@
         <v>28</v>
       </c>
       <c r="G19" s="79" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20">
@@ -4989,13 +5031,13 @@
         <v>27.0</v>
       </c>
       <c r="B20" s="77" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C20" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="96" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E20" s="96">
         <v>160.0</v>
@@ -5004,7 +5046,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="79" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21">
@@ -5012,13 +5054,13 @@
         <v>28.0</v>
       </c>
       <c r="B21" s="77" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C21" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="96" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E21" s="96">
         <v>155.0</v>
@@ -5027,7 +5069,7 @@
         <v>38</v>
       </c>
       <c r="G21" s="79" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22">
@@ -5035,13 +5077,13 @@
         <v>29.0</v>
       </c>
       <c r="B22" s="77" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C22" s="78" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="96" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E22" s="96">
         <v>170.0</v>
@@ -5050,7 +5092,7 @@
         <v>28</v>
       </c>
       <c r="G22" s="79" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23">
@@ -5058,10 +5100,10 @@
         <v>33.0</v>
       </c>
       <c r="B23" s="77" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C23" s="78" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D23" s="96" t="s">
         <v>44</v>
@@ -5073,7 +5115,7 @@
         <v>19</v>
       </c>
       <c r="G23" s="79" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24">
@@ -5081,10 +5123,10 @@
         <v>40.0</v>
       </c>
       <c r="B24" s="89" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C24" s="90" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D24" s="98" t="s">
         <v>44</v>
@@ -5096,7 +5138,7 @@
         <v>28</v>
       </c>
       <c r="G24" s="91" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -5128,7 +5170,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="71" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -5148,16 +5190,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E2" s="99" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3">
@@ -5165,7 +5207,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="101" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C3" s="102" t="s">
         <v>10</v>
@@ -5180,7 +5222,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="104" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4">
@@ -5188,13 +5230,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="106" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C4" s="107" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="107" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E4" s="108">
         <v>170.0</v>
@@ -5203,7 +5245,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="109" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5">
@@ -5211,7 +5253,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>16</v>
@@ -5226,7 +5268,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="110" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6">
@@ -5234,7 +5276,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="106" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C6" s="107" t="s">
         <v>22</v>
@@ -5249,7 +5291,7 @@
         <v>38</v>
       </c>
       <c r="G6" s="109" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7">
@@ -5257,13 +5299,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="106" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C7" s="107" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="107" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E7" s="108">
         <v>160.0</v>
@@ -5272,7 +5314,7 @@
         <v>28</v>
       </c>
       <c r="G7" s="109" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8">
@@ -5280,13 +5322,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="106" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C8" s="107" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="107" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E8" s="108">
         <v>205.0</v>
@@ -5295,7 +5337,7 @@
         <v>28</v>
       </c>
       <c r="G8" s="109" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9">
@@ -5303,7 +5345,7 @@
         <v>9.0</v>
       </c>
       <c r="B9" s="111" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C9" s="107" t="s">
         <v>16</v>
@@ -5318,7 +5360,7 @@
         <v>28</v>
       </c>
       <c r="G9" s="110" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10">
@@ -5326,13 +5368,13 @@
         <v>10.0</v>
       </c>
       <c r="B10" s="106" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C10" s="107" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="107" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E10" s="108">
         <v>160.0</v>
@@ -5341,7 +5383,7 @@
         <v>28</v>
       </c>
       <c r="G10" s="109" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11">
@@ -5349,7 +5391,7 @@
         <v>11.0</v>
       </c>
       <c r="B11" s="106" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C11" s="107" t="s">
         <v>22</v>
@@ -5364,7 +5406,7 @@
         <v>38</v>
       </c>
       <c r="G11" s="110" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12">
@@ -5372,13 +5414,13 @@
         <v>12.0</v>
       </c>
       <c r="B12" s="111" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="107" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E12" s="108">
         <v>160.0</v>
@@ -5387,7 +5429,7 @@
         <v>28</v>
       </c>
       <c r="G12" s="110" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13">
@@ -5395,7 +5437,7 @@
         <v>13.0</v>
       </c>
       <c r="B13" s="106" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>22</v>
@@ -5410,7 +5452,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="110" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14">
@@ -5418,13 +5460,13 @@
         <v>14.0</v>
       </c>
       <c r="B14" s="106" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="107" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E14" s="108">
         <v>175.0</v>
@@ -5433,7 +5475,7 @@
         <v>38</v>
       </c>
       <c r="G14" s="109" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15">
@@ -5441,7 +5483,7 @@
         <v>15.0</v>
       </c>
       <c r="B15" s="111" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C15" s="107" t="s">
         <v>22</v>
@@ -5456,7 +5498,7 @@
         <v>38</v>
       </c>
       <c r="G15" s="112" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16">
@@ -5464,13 +5506,13 @@
         <v>16.0</v>
       </c>
       <c r="B16" s="111" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C16" s="107" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="107" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E16" s="108">
         <v>175.0</v>
@@ -5479,7 +5521,7 @@
         <v>28</v>
       </c>
       <c r="G16" s="112" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17">
@@ -5487,7 +5529,7 @@
         <v>19.0</v>
       </c>
       <c r="B17" s="106" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C17" s="107" t="s">
         <v>22</v>
@@ -5502,7 +5544,7 @@
         <v>19</v>
       </c>
       <c r="G17" s="109" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18">
@@ -5510,13 +5552,13 @@
         <v>20.0</v>
       </c>
       <c r="B18" s="106" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C18" s="107" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="107" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E18" s="108">
         <v>180.0</v>
@@ -5525,7 +5567,7 @@
         <v>19</v>
       </c>
       <c r="G18" s="110" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19">
@@ -5533,7 +5575,7 @@
         <v>22.0</v>
       </c>
       <c r="B19" s="106" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C19" s="107" t="s">
         <v>22</v>
@@ -5548,7 +5590,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="110" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20">
@@ -5556,13 +5598,13 @@
         <v>24.0</v>
       </c>
       <c r="B20" s="106" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C20" s="107" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="107" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E20" s="108">
         <v>180.0</v>
@@ -5571,7 +5613,7 @@
         <v>38</v>
       </c>
       <c r="G20" s="109" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21">
@@ -5579,7 +5621,7 @@
         <v>25.0</v>
       </c>
       <c r="B21" s="111" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C21" s="107" t="s">
         <v>22</v>
@@ -5594,7 +5636,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="112" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22">
@@ -5602,13 +5644,13 @@
         <v>27.0</v>
       </c>
       <c r="B22" s="111" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C22" s="107" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="107" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E22" s="108">
         <v>195.0</v>
@@ -5625,13 +5667,13 @@
         <v>28.0</v>
       </c>
       <c r="B23" s="106" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C23" s="107" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="107" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E23" s="108">
         <v>155.0</v>
@@ -5640,7 +5682,7 @@
         <v>28</v>
       </c>
       <c r="G23" s="110" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24">
@@ -5648,7 +5690,7 @@
         <v>33.0</v>
       </c>
       <c r="B24" s="106" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C24" s="107" t="s">
         <v>10</v>
@@ -5663,7 +5705,7 @@
         <v>38</v>
       </c>
       <c r="G24" s="110" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25">
@@ -5671,7 +5713,7 @@
         <v>35.0</v>
       </c>
       <c r="B25" s="106" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C25" s="107" t="s">
         <v>10</v>
@@ -5686,7 +5728,7 @@
         <v>38</v>
       </c>
       <c r="G25" s="110" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26">
@@ -5694,13 +5736,13 @@
         <v>41.0</v>
       </c>
       <c r="B26" s="106" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C26" s="107" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="107" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E26" s="108">
         <v>200.0</v>
@@ -5709,7 +5751,7 @@
         <v>19</v>
       </c>
       <c r="G26" s="109" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27">
@@ -5717,7 +5759,7 @@
         <v>44.0</v>
       </c>
       <c r="B27" s="111" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C27" s="107" t="s">
         <v>22</v>
@@ -5732,7 +5774,7 @@
         <v>13</v>
       </c>
       <c r="G27" s="110" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="28">
@@ -5740,7 +5782,7 @@
         <v>89.0</v>
       </c>
       <c r="B28" s="106" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C28" s="107" t="s">
         <v>16</v>
@@ -5755,21 +5797,21 @@
         <v>19</v>
       </c>
       <c r="G28" s="109" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="113" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B29" s="114" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C29" s="115" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="115" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E29" s="116">
         <v>175.0</v>
@@ -5778,7 +5820,7 @@
         <v>28</v>
       </c>
       <c r="G29" s="117" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -5810,7 +5852,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="71" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -5830,16 +5872,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E2" s="99" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3">
@@ -5847,7 +5889,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="101" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C3" s="102" t="s">
         <v>10</v>
@@ -5862,7 +5904,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="104" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4">
@@ -5870,13 +5912,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="106" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C4" s="107" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="107" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E4" s="108">
         <v>170.0</v>
@@ -5885,7 +5927,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="109" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5">
@@ -5893,7 +5935,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>16</v>
@@ -5908,7 +5950,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="110" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6">
@@ -5916,7 +5958,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="106" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C6" s="107" t="s">
         <v>22</v>
@@ -5931,7 +5973,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="109" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7">
@@ -5939,13 +5981,13 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="106" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C7" s="107" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="107" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E7" s="108">
         <v>190.0</v>
@@ -5954,7 +5996,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="109" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8">
@@ -5962,7 +6004,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="106" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C8" s="107" t="s">
         <v>16</v>
@@ -5977,7 +6019,7 @@
         <v>38</v>
       </c>
       <c r="G8" s="109" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9">
@@ -5985,13 +6027,13 @@
         <v>9.0</v>
       </c>
       <c r="B9" s="111" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C9" s="107" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="107" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E9" s="108">
         <v>195.0</v>
@@ -6000,7 +6042,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="110" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10">
@@ -6008,13 +6050,13 @@
         <v>10.0</v>
       </c>
       <c r="B10" s="106" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C10" s="107" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="107" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E10" s="108">
         <v>150.0</v>
@@ -6023,7 +6065,7 @@
         <v>28</v>
       </c>
       <c r="G10" s="109" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11">
@@ -6031,7 +6073,7 @@
         <v>11.0</v>
       </c>
       <c r="B11" s="106" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C11" s="107" t="s">
         <v>22</v>
@@ -6046,7 +6088,7 @@
         <v>28</v>
       </c>
       <c r="G11" s="110" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12">
@@ -6054,7 +6096,7 @@
         <v>12.0</v>
       </c>
       <c r="B12" s="111" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>22</v>
@@ -6069,7 +6111,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="110" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13">
@@ -6077,7 +6119,7 @@
         <v>13.0</v>
       </c>
       <c r="B13" s="106" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>22</v>
@@ -6092,7 +6134,7 @@
         <v>19</v>
       </c>
       <c r="G13" s="110" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14">
@@ -6100,13 +6142,13 @@
         <v>14.0</v>
       </c>
       <c r="B14" s="106" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="107" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E14" s="108">
         <v>175.0</v>
@@ -6115,7 +6157,7 @@
         <v>38</v>
       </c>
       <c r="G14" s="109" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15">
@@ -6123,7 +6165,7 @@
         <v>15.0</v>
       </c>
       <c r="B15" s="111" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C15" s="107" t="s">
         <v>22</v>
@@ -6138,7 +6180,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="112" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16">
@@ -6146,7 +6188,7 @@
         <v>17.0</v>
       </c>
       <c r="B16" s="111" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C16" s="107" t="s">
         <v>16</v>
@@ -6161,7 +6203,7 @@
         <v>38</v>
       </c>
       <c r="G16" s="112" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17">
@@ -6169,7 +6211,7 @@
         <v>19.0</v>
       </c>
       <c r="B17" s="106" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C17" s="107" t="s">
         <v>22</v>
@@ -6184,7 +6226,7 @@
         <v>38</v>
       </c>
       <c r="G17" s="109" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18">
@@ -6192,13 +6234,13 @@
         <v>20.0</v>
       </c>
       <c r="B18" s="106" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C18" s="107" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="107" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E18" s="108">
         <v>180.0</v>
@@ -6207,7 +6249,7 @@
         <v>38</v>
       </c>
       <c r="G18" s="110" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19">
@@ -6215,7 +6257,7 @@
         <v>21.0</v>
       </c>
       <c r="B19" s="106" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C19" s="107" t="s">
         <v>16</v>
@@ -6230,7 +6272,7 @@
         <v>28</v>
       </c>
       <c r="G19" s="110" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20">
@@ -6238,7 +6280,7 @@
         <v>22.0</v>
       </c>
       <c r="B20" s="106" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C20" s="107" t="s">
         <v>22</v>
@@ -6253,7 +6295,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="109" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21">
@@ -6261,13 +6303,13 @@
         <v>23.0</v>
       </c>
       <c r="B21" s="111" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C21" s="107" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="107" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E21" s="108">
         <v>190.0</v>
@@ -6276,7 +6318,7 @@
         <v>13</v>
       </c>
       <c r="G21" s="112" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="22">
@@ -6284,13 +6326,13 @@
         <v>24.0</v>
       </c>
       <c r="B22" s="111" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C22" s="107" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="107" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E22" s="108">
         <v>180.0</v>
@@ -6299,7 +6341,7 @@
         <v>28</v>
       </c>
       <c r="G22" s="110" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23">
@@ -6307,7 +6349,7 @@
         <v>25.0</v>
       </c>
       <c r="B23" s="106" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C23" s="107" t="s">
         <v>22</v>
@@ -6322,7 +6364,7 @@
         <v>38</v>
       </c>
       <c r="G23" s="110" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24">
@@ -6330,13 +6372,13 @@
         <v>27.0</v>
       </c>
       <c r="B24" s="106" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C24" s="107" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="107" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E24" s="108">
         <v>180.0</v>
@@ -6345,7 +6387,7 @@
         <v>19</v>
       </c>
       <c r="G24" s="110" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25">
@@ -6353,7 +6395,7 @@
         <v>29.0</v>
       </c>
       <c r="B25" s="106" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C25" s="107" t="s">
         <v>22</v>
@@ -6368,7 +6410,7 @@
         <v>19</v>
       </c>
       <c r="G25" s="109" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26">
@@ -6376,13 +6418,13 @@
         <v>33.0</v>
       </c>
       <c r="B26" s="111" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C26" s="107" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="107" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E26" s="108">
         <v>165.0</v>
@@ -6391,7 +6433,7 @@
         <v>13</v>
       </c>
       <c r="G26" s="110" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27">
@@ -6399,7 +6441,7 @@
         <v>35.0</v>
       </c>
       <c r="B27" s="106" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C27" s="107" t="s">
         <v>10</v>
@@ -6414,7 +6456,7 @@
         <v>28</v>
       </c>
       <c r="G27" s="109" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28">
@@ -6422,7 +6464,7 @@
         <v>44.0</v>
       </c>
       <c r="B28" s="106" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C28" s="107" t="s">
         <v>22</v>
@@ -6437,7 +6479,7 @@
         <v>19</v>
       </c>
       <c r="G28" s="109" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29">
@@ -6445,7 +6487,7 @@
         <v>73.0</v>
       </c>
       <c r="B29" s="114" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C29" s="115" t="s">
         <v>22</v>
@@ -6460,7 +6502,7 @@
         <v>19</v>
       </c>
       <c r="G29" s="118" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -6492,7 +6534,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="71" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -6512,16 +6554,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3">
@@ -6529,7 +6571,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="120" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C3" s="121" t="s">
         <v>16</v>
@@ -6544,7 +6586,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="104" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4">
@@ -6552,7 +6594,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="123" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C4" s="124" t="s">
         <v>16</v>
@@ -6567,7 +6609,7 @@
         <v>38</v>
       </c>
       <c r="G4" s="110" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5">
@@ -6575,7 +6617,7 @@
         <v>6.0</v>
       </c>
       <c r="B5" s="123" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C5" s="124" t="s">
         <v>16</v>
@@ -6590,7 +6632,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="112" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6">
@@ -6598,13 +6640,13 @@
         <v>9.0</v>
       </c>
       <c r="B6" s="123" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C6" s="124" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="124" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E6" s="124">
         <v>195.0</v>
@@ -6613,7 +6655,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="110" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7">
@@ -6621,13 +6663,13 @@
         <v>11.0</v>
       </c>
       <c r="B7" s="123" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C7" s="124" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="124" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E7" s="124">
         <v>150.0</v>
@@ -6636,7 +6678,7 @@
         <v>19</v>
       </c>
       <c r="G7" s="110" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8">
@@ -6644,7 +6686,7 @@
         <v>12.0</v>
       </c>
       <c r="B8" s="123" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C8" s="124" t="s">
         <v>22</v>
@@ -6659,7 +6701,7 @@
         <v>19</v>
       </c>
       <c r="G8" s="110" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9">
@@ -6667,7 +6709,7 @@
         <v>13.0</v>
       </c>
       <c r="B9" s="123" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C9" s="124" t="s">
         <v>22</v>
@@ -6682,7 +6724,7 @@
         <v>38</v>
       </c>
       <c r="G9" s="110" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10">
@@ -6690,13 +6732,13 @@
         <v>14.0</v>
       </c>
       <c r="B10" s="123" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C10" s="124" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="124" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E10" s="124">
         <v>175.0</v>
@@ -6705,7 +6747,7 @@
         <v>28</v>
       </c>
       <c r="G10" s="110" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11">
@@ -6713,7 +6755,7 @@
         <v>15.0</v>
       </c>
       <c r="B11" s="123" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C11" s="124" t="s">
         <v>22</v>
@@ -6728,7 +6770,7 @@
         <v>19</v>
       </c>
       <c r="G11" s="112" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12">
@@ -6736,13 +6778,13 @@
         <v>16.0</v>
       </c>
       <c r="B12" s="123" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C12" s="124" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="124" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E12" s="124">
         <v>180.0</v>
@@ -6751,7 +6793,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="110" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13">
@@ -6759,13 +6801,13 @@
         <v>17.0</v>
       </c>
       <c r="B13" s="123" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C13" s="124" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="124" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E13" s="124">
         <v>180.0</v>
@@ -6774,7 +6816,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="110" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14">
@@ -6782,7 +6824,7 @@
         <v>19.0</v>
       </c>
       <c r="B14" s="123" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C14" s="124" t="s">
         <v>22</v>
@@ -6797,7 +6839,7 @@
         <v>28</v>
       </c>
       <c r="G14" s="112" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15">
@@ -6805,7 +6847,7 @@
         <v>22.0</v>
       </c>
       <c r="B15" s="123" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C15" s="124" t="s">
         <v>22</v>
@@ -6820,7 +6862,7 @@
         <v>38</v>
       </c>
       <c r="G15" s="112" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16">
@@ -6828,13 +6870,13 @@
         <v>23.0</v>
       </c>
       <c r="B16" s="123" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C16" s="124" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="124" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E16" s="124">
         <v>190.0</v>
@@ -6843,7 +6885,7 @@
         <v>19</v>
       </c>
       <c r="G16" s="110" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17">
@@ -6851,7 +6893,7 @@
         <v>25.0</v>
       </c>
       <c r="B17" s="123" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C17" s="124" t="s">
         <v>22</v>
@@ -6866,7 +6908,7 @@
         <v>28</v>
       </c>
       <c r="G17" s="110" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18">
@@ -6874,7 +6916,7 @@
         <v>26.0</v>
       </c>
       <c r="B18" s="123" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C18" s="124" t="s">
         <v>16</v>
@@ -6889,7 +6931,7 @@
         <v>38</v>
       </c>
       <c r="G18" s="112" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19">
@@ -6897,13 +6939,13 @@
         <v>27.0</v>
       </c>
       <c r="B19" s="123" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C19" s="124" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="124" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E19" s="124">
         <v>180.0</v>
@@ -6912,7 +6954,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="110" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20">
@@ -6920,13 +6962,13 @@
         <v>28.0</v>
       </c>
       <c r="B20" s="123" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C20" s="124" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="124" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E20" s="124">
         <v>160.0</v>
@@ -6935,7 +6977,7 @@
         <v>28</v>
       </c>
       <c r="G20" s="110" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21">
@@ -6943,13 +6985,13 @@
         <v>33.0</v>
       </c>
       <c r="B21" s="123" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C21" s="124" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="124" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E21" s="124">
         <v>165.0</v>
@@ -6958,7 +7000,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="110" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22">
@@ -6966,13 +7008,13 @@
         <v>35.0</v>
       </c>
       <c r="B22" s="123" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C22" s="124" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="124" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E22" s="124">
         <v>155.0</v>
@@ -6981,7 +7023,7 @@
         <v>13</v>
       </c>
       <c r="G22" s="110" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23">
@@ -6989,13 +7031,13 @@
         <v>40.0</v>
       </c>
       <c r="B23" s="123" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C23" s="124" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="124" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E23" s="124">
         <v>185.0</v>
@@ -7004,7 +7046,7 @@
         <v>28</v>
       </c>
       <c r="G23" s="112" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24">
@@ -7012,7 +7054,7 @@
         <v>73.0</v>
       </c>
       <c r="B24" s="126" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C24" s="127" t="s">
         <v>22</v>
@@ -7027,7 +7069,7 @@
         <v>38</v>
       </c>
       <c r="G24" s="118" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -7059,7 +7101,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="71" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -7079,16 +7121,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3">
@@ -7096,7 +7138,7 @@
         <v>3.0</v>
       </c>
       <c r="B3" s="120" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C3" s="121" t="s">
         <v>16</v>
@@ -7111,7 +7153,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="104" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4">
@@ -7119,7 +7161,7 @@
         <v>4.0</v>
       </c>
       <c r="B4" s="123" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C4" s="124" t="s">
         <v>22</v>
@@ -7134,7 +7176,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="110" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5">
@@ -7142,7 +7184,7 @@
         <v>6.0</v>
       </c>
       <c r="B5" s="123" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C5" s="124" t="s">
         <v>16</v>
@@ -7157,7 +7199,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="112" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6">
@@ -7165,13 +7207,13 @@
         <v>9.0</v>
       </c>
       <c r="B6" s="123" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C6" s="124" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="124" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E6" s="124">
         <v>160.0</v>
@@ -7180,7 +7222,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="110" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7">
@@ -7188,13 +7230,13 @@
         <v>11.0</v>
       </c>
       <c r="B7" s="123" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C7" s="124" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="124" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E7" s="124">
         <v>150.0</v>
@@ -7203,7 +7245,7 @@
         <v>38</v>
       </c>
       <c r="G7" s="110" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8">
@@ -7211,7 +7253,7 @@
         <v>12.0</v>
       </c>
       <c r="B8" s="123" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C8" s="124" t="s">
         <v>22</v>
@@ -7226,7 +7268,7 @@
         <v>38</v>
       </c>
       <c r="G8" s="110" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9">
@@ -7234,13 +7276,13 @@
         <v>14.0</v>
       </c>
       <c r="B9" s="123" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C9" s="124" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="124" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E9" s="124">
         <v>185.0</v>
@@ -7249,7 +7291,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="110" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10">
@@ -7257,13 +7299,13 @@
         <v>15.0</v>
       </c>
       <c r="B10" s="123" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C10" s="124" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="124" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E10" s="124">
         <v>155.0</v>
@@ -7272,7 +7314,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="110" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11">
@@ -7280,13 +7322,13 @@
         <v>16.0</v>
       </c>
       <c r="B11" s="123" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C11" s="124" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="124" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E11" s="124">
         <v>180.0</v>
@@ -7295,7 +7337,7 @@
         <v>19</v>
       </c>
       <c r="G11" s="112" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12">
@@ -7303,13 +7345,13 @@
         <v>19.0</v>
       </c>
       <c r="B12" s="123" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C12" s="124" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="124" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E12" s="124">
         <v>175.0</v>
@@ -7318,7 +7360,7 @@
         <v>28</v>
       </c>
       <c r="G12" s="110" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13">
@@ -7326,13 +7368,13 @@
         <v>20.0</v>
       </c>
       <c r="B13" s="123" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C13" s="124" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="124" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E13" s="124">
         <v>150.0</v>
@@ -7341,7 +7383,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="110" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14">
@@ -7349,13 +7391,13 @@
         <v>23.0</v>
       </c>
       <c r="B14" s="123" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C14" s="124" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="124" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E14" s="124">
         <v>190.0</v>
@@ -7364,7 +7406,7 @@
         <v>38</v>
       </c>
       <c r="G14" s="112" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15">
@@ -7372,13 +7414,13 @@
         <v>24.0</v>
       </c>
       <c r="B15" s="123" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C15" s="124" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="124" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E15" s="124">
         <v>200.0</v>
@@ -7387,7 +7429,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="110" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="16">
@@ -7395,13 +7437,13 @@
         <v>25.0</v>
       </c>
       <c r="B16" s="123" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C16" s="124" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="124" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E16" s="124">
         <v>165.0</v>
@@ -7410,7 +7452,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="110" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17">
@@ -7418,7 +7460,7 @@
         <v>26.0</v>
       </c>
       <c r="B17" s="123" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C17" s="124" t="s">
         <v>16</v>
@@ -7433,7 +7475,7 @@
         <v>28</v>
       </c>
       <c r="G17" s="112" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18">
@@ -7441,7 +7483,7 @@
         <v>27.0</v>
       </c>
       <c r="B18" s="123" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C18" s="124" t="s">
         <v>22</v>
@@ -7456,7 +7498,7 @@
         <v>13</v>
       </c>
       <c r="G18" s="110" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19">
@@ -7464,13 +7506,13 @@
         <v>29.0</v>
       </c>
       <c r="B19" s="123" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C19" s="124" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="124" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E19" s="124">
         <v>140.0</v>
@@ -7479,7 +7521,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="110" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20">
@@ -7487,13 +7529,13 @@
         <v>30.0</v>
       </c>
       <c r="B20" s="123" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C20" s="124" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="124" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E20" s="124">
         <v>165.0</v>
@@ -7502,7 +7544,7 @@
         <v>13</v>
       </c>
       <c r="G20" s="110" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21">
@@ -7510,13 +7552,13 @@
         <v>31.0</v>
       </c>
       <c r="B21" s="123" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C21" s="124" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="124" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E21" s="124">
         <v>195.0</v>
@@ -7525,7 +7567,7 @@
         <v>38</v>
       </c>
       <c r="G21" s="110" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="22">
@@ -7533,13 +7575,13 @@
         <v>35.0</v>
       </c>
       <c r="B22" s="123" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C22" s="124" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="124" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E22" s="124">
         <v>155.0</v>
@@ -7548,7 +7590,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="112" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23">
@@ -7556,7 +7598,7 @@
         <v>44.0</v>
       </c>
       <c r="B23" s="123" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C23" s="124" t="s">
         <v>22</v>
@@ -7571,7 +7613,7 @@
         <v>28</v>
       </c>
       <c r="G23" s="110" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24">
@@ -7579,13 +7621,13 @@
         <v>55.0</v>
       </c>
       <c r="B24" s="126" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C24" s="127" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="127" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E24" s="127">
         <v>165.0</v>
@@ -7594,7 +7636,7 @@
         <v>38</v>
       </c>
       <c r="G24" s="118" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -7625,7 +7667,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="71" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -7645,16 +7687,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3">
@@ -7662,7 +7704,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="120" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C3" s="121" t="s">
         <v>16</v>
@@ -7677,7 +7719,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="104" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4">
@@ -7685,7 +7727,7 @@
         <v>4.0</v>
       </c>
       <c r="B4" s="123" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C4" s="124" t="s">
         <v>22</v>
@@ -7700,7 +7742,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="110" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5">
@@ -7708,13 +7750,13 @@
         <v>5.0</v>
       </c>
       <c r="B5" s="123" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C5" s="124" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="124" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E5" s="124">
         <v>190.0</v>
@@ -7723,7 +7765,7 @@
         <v>28</v>
       </c>
       <c r="G5" s="110" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6">
@@ -7731,7 +7773,7 @@
         <v>6.0</v>
       </c>
       <c r="B6" s="123" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C6" s="124" t="s">
         <v>16</v>
@@ -7746,7 +7788,7 @@
         <v>38</v>
       </c>
       <c r="G6" s="112" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7">
@@ -7754,7 +7796,7 @@
         <v>7.0</v>
       </c>
       <c r="B7" s="123" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C7" s="124" t="s">
         <v>22</v>
@@ -7769,7 +7811,7 @@
         <v>38</v>
       </c>
       <c r="G7" s="112" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8">
@@ -7777,13 +7819,13 @@
         <v>9.0</v>
       </c>
       <c r="B8" s="123" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C8" s="124" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="124" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E8" s="124">
         <v>160.0</v>
@@ -7792,7 +7834,7 @@
         <v>19</v>
       </c>
       <c r="G8" s="110" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9">
@@ -7800,13 +7842,13 @@
         <v>11.0</v>
       </c>
       <c r="B9" s="123" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C9" s="124" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="124" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E9" s="124">
         <v>150.0</v>
@@ -7815,7 +7857,7 @@
         <v>28</v>
       </c>
       <c r="G9" s="110" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10">
@@ -7823,13 +7865,13 @@
         <v>13.0</v>
       </c>
       <c r="B10" s="123" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C10" s="124" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="124" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E10" s="124">
         <v>180.0</v>
@@ -7838,7 +7880,7 @@
         <v>38</v>
       </c>
       <c r="G10" s="110" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11">
@@ -7846,13 +7888,13 @@
         <v>14.0</v>
       </c>
       <c r="B11" s="123" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C11" s="124" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="124" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E11" s="124">
         <v>185.0</v>
@@ -7861,7 +7903,7 @@
         <v>19</v>
       </c>
       <c r="G11" s="110" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12">
@@ -7869,13 +7911,13 @@
         <v>15.0</v>
       </c>
       <c r="B12" s="123" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C12" s="124" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="124" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E12" s="124">
         <v>155.0</v>
@@ -7884,7 +7926,7 @@
         <v>19</v>
       </c>
       <c r="G12" s="110" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13">
@@ -7892,13 +7934,13 @@
         <v>16.0</v>
       </c>
       <c r="B13" s="123" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C13" s="124" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="124" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E13" s="124">
         <v>180.0</v>
@@ -7907,7 +7949,7 @@
         <v>38</v>
       </c>
       <c r="G13" s="112" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14">
@@ -7915,13 +7957,13 @@
         <v>19.0</v>
       </c>
       <c r="B14" s="123" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C14" s="124" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="124" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E14" s="124">
         <v>170.0</v>
@@ -7930,7 +7972,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="110" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15">
@@ -7938,13 +7980,13 @@
         <v>20.0</v>
       </c>
       <c r="B15" s="123" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C15" s="124" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="124" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E15" s="124">
         <v>150.0</v>
@@ -7953,7 +7995,7 @@
         <v>19</v>
       </c>
       <c r="G15" s="110" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16">
@@ -7961,7 +8003,7 @@
         <v>21.0</v>
       </c>
       <c r="B16" s="123" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C16" s="124" t="s">
         <v>22</v>
@@ -7976,7 +8018,7 @@
         <v>38</v>
       </c>
       <c r="G16" s="110" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17">
@@ -7984,13 +8026,13 @@
         <v>22.0</v>
       </c>
       <c r="B17" s="123" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C17" s="124" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="124" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E17" s="124">
         <v>185.0</v>
@@ -7999,7 +8041,7 @@
         <v>38</v>
       </c>
       <c r="G17" s="112" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18">
@@ -8007,13 +8049,13 @@
         <v>23.0</v>
       </c>
       <c r="B18" s="123" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C18" s="124" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="124" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E18" s="124">
         <v>190.0</v>
@@ -8022,7 +8064,7 @@
         <v>28</v>
       </c>
       <c r="G18" s="112" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19">
@@ -8030,13 +8072,13 @@
         <v>24.0</v>
       </c>
       <c r="B19" s="123" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C19" s="124" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="124" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E19" s="124">
         <v>200.0</v>
@@ -8045,7 +8087,7 @@
         <v>19</v>
       </c>
       <c r="G19" s="110" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20">
@@ -8053,13 +8095,13 @@
         <v>25.0</v>
       </c>
       <c r="B20" s="123" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C20" s="124" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="124" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E20" s="124">
         <v>165.0</v>
@@ -8068,7 +8110,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="110" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21">
@@ -8076,7 +8118,7 @@
         <v>27.0</v>
       </c>
       <c r="B21" s="123" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C21" s="124" t="s">
         <v>22</v>
@@ -8091,7 +8133,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="110" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="22">
@@ -8099,13 +8141,13 @@
         <v>28.0</v>
       </c>
       <c r="B22" s="123" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C22" s="124" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="124" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E22" s="124">
         <v>170.0</v>
@@ -8114,7 +8156,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="110" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23">
@@ -8122,13 +8164,13 @@
         <v>29.0</v>
       </c>
       <c r="B23" s="123" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C23" s="124" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="124" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E23" s="124">
         <v>140.0</v>
@@ -8137,7 +8179,7 @@
         <v>19</v>
       </c>
       <c r="G23" s="110" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24">
@@ -8145,13 +8187,13 @@
         <v>30.0</v>
       </c>
       <c r="B24" s="123" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C24" s="124" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="124" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E24" s="124">
         <v>165.0</v>
@@ -8160,7 +8202,7 @@
         <v>19</v>
       </c>
       <c r="G24" s="110" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25">
@@ -8168,13 +8210,13 @@
         <v>31.0</v>
       </c>
       <c r="B25" s="123" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C25" s="124" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="124" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E25" s="124">
         <v>195.0</v>
@@ -8183,7 +8225,7 @@
         <v>28</v>
       </c>
       <c r="G25" s="110" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26">
@@ -8191,13 +8233,13 @@
         <v>35.0</v>
       </c>
       <c r="B26" s="123" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C26" s="124" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="124" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E26" s="124">
         <v>155.0</v>
@@ -8206,7 +8248,7 @@
         <v>38</v>
       </c>
       <c r="G26" s="112" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="27">
@@ -8214,13 +8256,13 @@
         <v>44.0</v>
       </c>
       <c r="B27" s="123" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C27" s="124" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="124" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E27" s="124">
         <v>205.0</v>
@@ -8229,7 +8271,7 @@
         <v>13</v>
       </c>
       <c r="G27" s="110" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28">
@@ -8237,13 +8279,13 @@
         <v>55.0</v>
       </c>
       <c r="B28" s="126" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C28" s="127" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="127" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E28" s="127">
         <v>165.0</v>
@@ -8252,7 +8294,7 @@
         <v>28</v>
       </c>
       <c r="G28" s="118" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -8278,7 +8320,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -8305,7 +8347,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2">
@@ -8369,13 +8411,13 @@
         <v>2.0</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E7" s="22">
         <v>185.0</v>
@@ -8386,7 +8428,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -8403,7 +8445,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E9" s="22">
         <v>155.0</v>
@@ -8453,13 +8495,13 @@
         <v>6.0</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E13" s="22">
         <v>185.0</v>
@@ -8481,13 +8523,13 @@
         <v>7.0</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E15" s="22">
         <v>170.0</v>
@@ -8498,7 +8540,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -8509,13 +8551,13 @@
         <v>9.0</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E17" s="22">
         <v>160.0</v>
@@ -8526,7 +8568,7 @@
         <v>38</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -8537,7 +8579,7 @@
         <v>11.0</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>22</v>
@@ -8554,7 +8596,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -8565,13 +8607,13 @@
         <v>12.0</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E21" s="22">
         <v>150.0</v>
@@ -8582,7 +8624,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -8593,13 +8635,13 @@
         <v>13.0</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E23" s="22">
         <v>175.0</v>
@@ -8610,7 +8652,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -8683,7 +8725,7 @@
         <v>22</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E29" s="22">
         <v>165.0</v>
@@ -8705,13 +8747,13 @@
         <v>19.0</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E31" s="22">
         <v>145.0</v>
@@ -8722,7 +8764,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -8739,7 +8781,7 @@
         <v>16</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E33" s="22">
         <v>175.0</v>
@@ -8761,13 +8803,13 @@
         <v>21.0</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E35" s="22">
         <v>190.0</v>
@@ -8778,7 +8820,7 @@
         <v>61</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -8789,7 +8831,7 @@
         <v>22.0</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>16</v>
@@ -8806,7 +8848,7 @@
         <v>28</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -8817,13 +8859,13 @@
         <v>23.0</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E39" s="22">
         <v>160.0</v>
@@ -8834,7 +8876,7 @@
         <v>13</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -8845,13 +8887,13 @@
         <v>24.0</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E41" s="22">
         <v>155.0</v>
@@ -8862,7 +8904,7 @@
         <v>19</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -8873,13 +8915,13 @@
         <v>25.0</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E43" s="22">
         <v>150.0</v>
@@ -8890,7 +8932,7 @@
         <v>28</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -8901,13 +8943,13 @@
         <v>26.0</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E45" s="22">
         <v>155.0</v>
@@ -8918,7 +8960,7 @@
         <v>19</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -8929,13 +8971,13 @@
         <v>27.0</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C47" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E47" s="22">
         <v>205.0</v>
@@ -8946,7 +8988,7 @@
         <v>13</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -8957,7 +8999,7 @@
         <v>28.0</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C49" s="21" t="s">
         <v>22</v>
@@ -8974,7 +9016,7 @@
         <v>19</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -8985,13 +9027,13 @@
         <v>31.0</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C51" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E51" s="22">
         <v>135.0</v>
@@ -9002,7 +9044,7 @@
         <v>38</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -9013,13 +9055,13 @@
         <v>35.0</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C53" s="28" t="s">
         <v>10</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E53" s="29">
         <v>170.0</v>
@@ -9030,7 +9072,7 @@
         <v>19</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -9041,13 +9083,13 @@
         <v>40.0</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C55" s="28" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E55" s="29">
         <v>150.0</v>
@@ -9058,7 +9100,7 @@
         <v>38</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -9069,13 +9111,13 @@
         <v>43.0</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C57" s="28" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E57" s="29">
         <v>170.0</v>
@@ -9086,7 +9128,7 @@
         <v>13</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -9097,7 +9139,7 @@
         <v>68.0</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C59" s="28" t="s">
         <v>22</v>
@@ -9114,7 +9156,7 @@
         <v>13</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -9125,7 +9167,7 @@
         <v>92.0</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>22</v>
@@ -9142,7 +9184,7 @@
         <v>19</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -9206,7 +9248,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="32" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
@@ -9273,13 +9315,13 @@
         <v>2.0</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E7" s="43">
         <v>185.0</v>
@@ -9290,7 +9332,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -9307,7 +9349,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E9" s="43">
         <v>155.0</v>
@@ -9329,7 +9371,7 @@
         <v>4.0</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C11" s="42" t="s">
         <v>16</v>
@@ -9346,7 +9388,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -9357,13 +9399,13 @@
         <v>5.0</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C13" s="42" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E13" s="43">
         <v>185.0</v>
@@ -9374,7 +9416,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -9385,13 +9427,13 @@
         <v>7.0</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C15" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E15" s="43">
         <v>170.0</v>
@@ -9402,7 +9444,7 @@
         <v>38</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -9413,13 +9455,13 @@
         <v>9.0</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C17" s="42" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E17" s="43">
         <v>160.0</v>
@@ -9430,7 +9472,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -9441,13 +9483,13 @@
         <v>10.0</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C19" s="42" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E19" s="43">
         <v>165.0</v>
@@ -9458,7 +9500,7 @@
         <v>38</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -9469,7 +9511,7 @@
         <v>11.0</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C21" s="42" t="s">
         <v>22</v>
@@ -9486,7 +9528,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -9497,13 +9539,13 @@
         <v>12.0</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C23" s="42" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E23" s="43">
         <v>150.0</v>
@@ -9514,7 +9556,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -9525,13 +9567,13 @@
         <v>13.0</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C25" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E25" s="43">
         <v>175.0</v>
@@ -9542,7 +9584,7 @@
         <v>38</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -9553,7 +9595,7 @@
         <v>14.0</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>16</v>
@@ -9570,7 +9612,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -9609,13 +9651,13 @@
         <v>16.0</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C31" s="42" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E31" s="43">
         <v>170.0</v>
@@ -9626,7 +9668,7 @@
         <v>13</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -9637,7 +9679,7 @@
         <v>17.0</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C33" s="42" t="s">
         <v>22</v>
@@ -9654,7 +9696,7 @@
         <v>13</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -9665,13 +9707,13 @@
         <v>19.0</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C35" s="42" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E35" s="43">
         <v>145.0</v>
@@ -9682,7 +9724,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -9693,13 +9735,13 @@
         <v>21.0</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C37" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E37" s="43">
         <v>190.0</v>
@@ -9710,7 +9752,7 @@
         <v>13</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -9721,13 +9763,13 @@
         <v>23.0</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C39" s="42" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E39" s="43">
         <v>160.0</v>
@@ -9738,7 +9780,7 @@
         <v>19</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -9749,13 +9791,13 @@
         <v>24.0</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C41" s="42" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="42" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E41" s="43">
         <v>155.0</v>
@@ -9766,7 +9808,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -9777,13 +9819,13 @@
         <v>26.0</v>
       </c>
       <c r="B43" s="41" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C43" s="42" t="s">
         <v>22</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E43" s="43">
         <v>155.0</v>
@@ -9794,7 +9836,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -9805,13 +9847,13 @@
         <v>27.0</v>
       </c>
       <c r="B45" s="41" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C45" s="42" t="s">
         <v>22</v>
       </c>
       <c r="D45" s="42" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E45" s="43">
         <v>205.0</v>
@@ -9822,7 +9864,7 @@
         <v>19</v>
       </c>
       <c r="B46" s="45" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -9833,13 +9875,13 @@
         <v>28.0</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C47" s="42" t="s">
         <v>22</v>
       </c>
       <c r="D47" s="42" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E47" s="43">
         <v>175.0</v>
@@ -9850,7 +9892,7 @@
         <v>13</v>
       </c>
       <c r="B48" s="45" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -9861,13 +9903,13 @@
         <v>31.0</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C49" s="42" t="s">
         <v>10</v>
       </c>
       <c r="D49" s="42" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="43">
         <v>135.0</v>
@@ -9878,7 +9920,7 @@
         <v>28</v>
       </c>
       <c r="B50" s="45" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -9889,13 +9931,13 @@
         <v>35.0</v>
       </c>
       <c r="B51" s="47" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C51" s="48" t="s">
         <v>10</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E51" s="49">
         <v>170.0</v>
@@ -9906,7 +9948,7 @@
         <v>38</v>
       </c>
       <c r="B52" s="51" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -9917,13 +9959,13 @@
         <v>40.0</v>
       </c>
       <c r="B53" s="47" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C53" s="48" t="s">
         <v>10</v>
       </c>
       <c r="D53" s="48" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E53" s="49">
         <v>150.0</v>
@@ -9934,7 +9976,7 @@
         <v>28</v>
       </c>
       <c r="B54" s="51" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -9945,13 +9987,13 @@
         <v>43.0</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C55" s="48" t="s">
         <v>22</v>
       </c>
       <c r="D55" s="48" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E55" s="49">
         <v>170.0</v>
@@ -9962,7 +10004,7 @@
         <v>19</v>
       </c>
       <c r="B56" s="51" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -9973,7 +10015,7 @@
         <v>68.0</v>
       </c>
       <c r="B57" s="47" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C57" s="48" t="s">
         <v>22</v>
@@ -9990,7 +10032,7 @@
         <v>19</v>
       </c>
       <c r="B58" s="51" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -10001,7 +10043,7 @@
         <v>92.0</v>
       </c>
       <c r="B59" s="47" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C59" s="48" t="s">
         <v>22</v>
@@ -10018,7 +10060,7 @@
         <v>38</v>
       </c>
       <c r="B60" s="51" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -10083,7 +10125,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="52" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -10103,13 +10145,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G2" s="56" t="s">
         <v>8</v>
@@ -10120,7 +10162,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>10</v>
@@ -10135,7 +10177,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="43" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4">
@@ -10143,13 +10185,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E4" s="39">
         <v>155.0</v>
@@ -10158,7 +10200,7 @@
         <v>38</v>
       </c>
       <c r="G4" s="59" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5">
@@ -10166,13 +10208,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E5" s="39">
         <v>160.0</v>
@@ -10181,7 +10223,7 @@
         <v>28</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
@@ -10189,13 +10231,13 @@
         <v>6.0</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C6" s="39" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E6" s="39">
         <v>200.0</v>
@@ -10204,7 +10246,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="59" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7">
@@ -10212,7 +10254,7 @@
         <v>7.0</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C7" s="39" t="s">
         <v>16</v>
@@ -10227,7 +10269,7 @@
         <v>19</v>
       </c>
       <c r="G7" s="59" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8">
@@ -10235,13 +10277,13 @@
         <v>9.0</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E8" s="39">
         <v>175.0</v>
@@ -10250,7 +10292,7 @@
         <v>28</v>
       </c>
       <c r="G8" s="59" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
@@ -10258,13 +10300,13 @@
         <v>10.0</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C9" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E9" s="39">
         <v>170.0</v>
@@ -10273,7 +10315,7 @@
         <v>28</v>
       </c>
       <c r="G9" s="59" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
@@ -10281,13 +10323,13 @@
         <v>11.0</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C10" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E10" s="39">
         <v>135.0</v>
@@ -10296,7 +10338,7 @@
         <v>28</v>
       </c>
       <c r="G10" s="59" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
@@ -10304,13 +10346,13 @@
         <v>12.0</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C11" s="39" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E11" s="39">
         <v>150.0</v>
@@ -10319,7 +10361,7 @@
         <v>38</v>
       </c>
       <c r="G11" s="59" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12">
@@ -10327,13 +10369,13 @@
         <v>13.0</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E12" s="39">
         <v>175.0</v>
@@ -10342,7 +10384,7 @@
         <v>28</v>
       </c>
       <c r="G12" s="59" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13">
@@ -10350,13 +10392,13 @@
         <v>14.0</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C13" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E13" s="39">
         <v>200.0</v>
@@ -10365,7 +10407,7 @@
         <v>38</v>
       </c>
       <c r="G13" s="59" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14">
@@ -10373,13 +10415,13 @@
         <v>15.0</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C14" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E14" s="39">
         <v>155.0</v>
@@ -10388,7 +10430,7 @@
         <v>38</v>
       </c>
       <c r="G14" s="59" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15">
@@ -10396,13 +10438,13 @@
         <v>16.0</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C15" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E15" s="39">
         <v>175.0</v>
@@ -10411,7 +10453,7 @@
         <v>19</v>
       </c>
       <c r="G15" s="59" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
@@ -10419,7 +10461,7 @@
         <v>17.0</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C16" s="39" t="s">
         <v>22</v>
@@ -10434,7 +10476,7 @@
         <v>19</v>
       </c>
       <c r="G16" s="59" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
@@ -10442,13 +10484,13 @@
         <v>19.0</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C17" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E17" s="39">
         <v>185.0</v>
@@ -10457,7 +10499,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="59" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
@@ -10465,7 +10507,7 @@
         <v>21.0</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C18" s="39" t="s">
         <v>22</v>
@@ -10480,7 +10522,7 @@
         <v>38</v>
       </c>
       <c r="G18" s="59" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19">
@@ -10488,13 +10530,13 @@
         <v>22.0</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C19" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E19" s="39">
         <v>160.0</v>
@@ -10503,7 +10545,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="59" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20">
@@ -10511,13 +10553,13 @@
         <v>24.0</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C20" s="39" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E20" s="39">
         <v>200.0</v>
@@ -10526,7 +10568,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="59" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21">
@@ -10534,7 +10576,7 @@
         <v>25.0</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C21" s="39" t="s">
         <v>16</v>
@@ -10549,7 +10591,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="59" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
@@ -10557,7 +10599,7 @@
         <v>26.0</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C22" s="39" t="s">
         <v>22</v>
@@ -10572,7 +10614,7 @@
         <v>38</v>
       </c>
       <c r="G22" s="59" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23">
@@ -10580,13 +10622,13 @@
         <v>27.0</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C23" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E23" s="39">
         <v>200.0</v>
@@ -10595,7 +10637,7 @@
         <v>38</v>
       </c>
       <c r="G23" s="59" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24">
@@ -10603,13 +10645,13 @@
         <v>28.0</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C24" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E24" s="39">
         <v>155.0</v>
@@ -10618,7 +10660,7 @@
         <v>28</v>
       </c>
       <c r="G24" s="59" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25">
@@ -10626,13 +10668,13 @@
         <v>31.0</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C25" s="62" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="62" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E25" s="62">
         <v>195.0</v>
@@ -10641,7 +10683,7 @@
         <v>28</v>
       </c>
       <c r="G25" s="63" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26">
@@ -10649,13 +10691,13 @@
         <v>35.0</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C26" s="62" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="62" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E26" s="62">
         <v>170.0</v>
@@ -10664,7 +10706,7 @@
         <v>28</v>
       </c>
       <c r="G26" s="63" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27">
@@ -10672,13 +10714,13 @@
         <v>43.0</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C27" s="62" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="62" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E27" s="62">
         <v>160.0</v>
@@ -10687,7 +10729,7 @@
         <v>38</v>
       </c>
       <c r="G27" s="63" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28">
@@ -10695,13 +10737,13 @@
         <v>91.0</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C28" s="62" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E28" s="62">
         <v>170.0</v>
@@ -10710,7 +10752,7 @@
         <v>13</v>
       </c>
       <c r="G28" s="63" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29">
@@ -10718,7 +10760,7 @@
         <v>92.0</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C29" s="65" t="s">
         <v>22</v>
@@ -10733,7 +10775,7 @@
         <v>28</v>
       </c>
       <c r="G29" s="66" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -10765,7 +10807,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="52" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -10785,13 +10827,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G2" s="56" t="s">
         <v>8</v>
@@ -10802,13 +10844,13 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E3" s="42">
         <v>145.0</v>
@@ -10817,7 +10859,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="43" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4">
@@ -10825,13 +10867,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E4" s="39">
         <v>155.0</v>
@@ -10840,7 +10882,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="59" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5">
@@ -10848,13 +10890,13 @@
         <v>5.0</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E5" s="39">
         <v>260.0</v>
@@ -10863,7 +10905,7 @@
         <v>28</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6">
@@ -10871,13 +10913,13 @@
         <v>6.0</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C6" s="39" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E6" s="39">
         <v>180.0</v>
@@ -10886,7 +10928,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="59" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7">
@@ -10894,7 +10936,7 @@
         <v>7.0</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C7" s="39" t="s">
         <v>16</v>
@@ -10909,7 +10951,7 @@
         <v>38</v>
       </c>
       <c r="G7" s="59" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8">
@@ -10917,13 +10959,13 @@
         <v>9.0</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E8" s="39">
         <v>165.0</v>
@@ -10932,7 +10974,7 @@
         <v>19</v>
       </c>
       <c r="G8" s="59" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9">
@@ -10940,7 +10982,7 @@
         <v>10.0</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C9" s="39" t="s">
         <v>22</v>
@@ -10955,7 +10997,7 @@
         <v>19</v>
       </c>
       <c r="G9" s="59" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10">
@@ -10963,13 +11005,13 @@
         <v>12.0</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C10" s="39" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E10" s="39">
         <v>150.0</v>
@@ -10978,7 +11020,7 @@
         <v>28</v>
       </c>
       <c r="G10" s="59" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11">
@@ -10986,13 +11028,13 @@
         <v>14.0</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C11" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E11" s="39">
         <v>200.0</v>
@@ -11001,7 +11043,7 @@
         <v>28</v>
       </c>
       <c r="G11" s="59" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12">
@@ -11009,13 +11051,13 @@
         <v>15.0</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E12" s="39">
         <v>155.0</v>
@@ -11024,7 +11066,7 @@
         <v>28</v>
       </c>
       <c r="G12" s="59" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
@@ -11032,13 +11074,13 @@
         <v>16.0</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C13" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E13" s="39">
         <v>170.0</v>
@@ -11047,7 +11089,7 @@
         <v>38</v>
       </c>
       <c r="G13" s="59" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
@@ -11055,7 +11097,7 @@
         <v>17.0</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C14" s="39" t="s">
         <v>22</v>
@@ -11070,7 +11112,7 @@
         <v>38</v>
       </c>
       <c r="G14" s="59" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
@@ -11078,13 +11120,13 @@
         <v>19.0</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C15" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E15" s="39">
         <v>175.0</v>
@@ -11093,7 +11135,7 @@
         <v>19</v>
       </c>
       <c r="G15" s="59" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -11101,13 +11143,13 @@
         <v>20.0</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C16" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E16" s="39">
         <v>140.0</v>
@@ -11116,7 +11158,7 @@
         <v>38</v>
       </c>
       <c r="G16" s="59" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17">
@@ -11124,7 +11166,7 @@
         <v>21.0</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C17" s="39" t="s">
         <v>22</v>
@@ -11139,7 +11181,7 @@
         <v>28</v>
       </c>
       <c r="G17" s="59" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18">
@@ -11147,13 +11189,13 @@
         <v>22.0</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C18" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E18" s="39">
         <v>160.0</v>
@@ -11162,7 +11204,7 @@
         <v>19</v>
       </c>
       <c r="G18" s="59" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19">
@@ -11170,7 +11212,7 @@
         <v>23.0</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C19" s="39" t="s">
         <v>22</v>
@@ -11185,7 +11227,7 @@
         <v>19</v>
       </c>
       <c r="G19" s="59" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20">
@@ -11193,7 +11235,7 @@
         <v>25.0</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C20" s="39" t="s">
         <v>16</v>
@@ -11208,7 +11250,7 @@
         <v>38</v>
       </c>
       <c r="G20" s="59" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
@@ -11216,7 +11258,7 @@
         <v>26.0</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C21" s="39" t="s">
         <v>22</v>
@@ -11231,7 +11273,7 @@
         <v>28</v>
       </c>
       <c r="G21" s="59" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22">
@@ -11239,13 +11281,13 @@
         <v>27.0</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C22" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E22" s="39">
         <v>195.0</v>
@@ -11254,7 +11296,7 @@
         <v>28</v>
       </c>
       <c r="G22" s="59" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23">
@@ -11262,13 +11304,13 @@
         <v>30.0</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C23" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E23" s="39">
         <v>180.0</v>
@@ -11277,7 +11319,7 @@
         <v>13</v>
       </c>
       <c r="G23" s="59" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24">
@@ -11285,7 +11327,7 @@
         <v>31.0</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C24" s="39" t="s">
         <v>10</v>
@@ -11300,7 +11342,7 @@
         <v>28</v>
       </c>
       <c r="G24" s="59" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25">
@@ -11308,13 +11350,13 @@
         <v>37.0</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C25" s="62" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="62" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E25" s="62">
         <v>175.0</v>
@@ -11323,7 +11365,7 @@
         <v>13</v>
       </c>
       <c r="G25" s="63" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26">
@@ -11331,13 +11373,13 @@
         <v>43.0</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C26" s="62" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="62" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E26" s="62">
         <v>155.0</v>
@@ -11346,7 +11388,7 @@
         <v>28</v>
       </c>
       <c r="G26" s="63" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27">
@@ -11354,7 +11396,7 @@
         <v>44.0</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C27" s="62" t="s">
         <v>16</v>
@@ -11369,7 +11411,7 @@
         <v>13</v>
       </c>
       <c r="G27" s="63" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28">
@@ -11377,7 +11419,7 @@
         <v>76.0</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C28" s="62" t="s">
         <v>16</v>
@@ -11392,7 +11434,7 @@
         <v>19</v>
       </c>
       <c r="G28" s="63" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29">
@@ -11400,13 +11442,13 @@
         <v>91.0</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C29" s="62" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E29" s="62">
         <v>165.0</v>
@@ -11415,7 +11457,7 @@
         <v>19</v>
       </c>
       <c r="G29" s="63" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30">
@@ -11423,13 +11465,13 @@
         <v>95.0</v>
       </c>
       <c r="B30" s="68" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C30" s="69" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="69" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E30" s="69">
         <v>165.0</v>
@@ -11438,7 +11480,7 @@
         <v>13</v>
       </c>
       <c r="G30" s="70" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -11470,7 +11512,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="52" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -11490,13 +11532,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G2" s="56" t="s">
         <v>8</v>
@@ -11507,13 +11549,13 @@
         <v>3.0</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E3" s="42">
         <v>150.0</v>
@@ -11522,7 +11564,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="43" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4">
@@ -11530,13 +11572,13 @@
         <v>4.0</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E4" s="39">
         <v>190.0</v>
@@ -11545,7 +11587,7 @@
         <v>38</v>
       </c>
       <c r="G4" s="59" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5">
@@ -11553,13 +11595,13 @@
         <v>6.0</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E5" s="39">
         <v>175.0</v>
@@ -11568,7 +11610,7 @@
         <v>38</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6">
@@ -11576,13 +11618,13 @@
         <v>7.0</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C6" s="39" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E6" s="39">
         <v>155.0</v>
@@ -11591,7 +11633,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="59" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7">
@@ -11599,13 +11641,13 @@
         <v>9.0</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C7" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E7" s="39">
         <v>165.0</v>
@@ -11614,7 +11656,7 @@
         <v>38</v>
       </c>
       <c r="G7" s="59" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8">
@@ -11622,7 +11664,7 @@
         <v>10.0</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>22</v>
@@ -11637,7 +11679,7 @@
         <v>38</v>
       </c>
       <c r="G8" s="59" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9">
@@ -11645,7 +11687,7 @@
         <v>11.0</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C9" s="39" t="s">
         <v>22</v>
@@ -11660,7 +11702,7 @@
         <v>28</v>
       </c>
       <c r="G9" s="59" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10">
@@ -11668,13 +11710,13 @@
         <v>14.0</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C10" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E10" s="39">
         <v>195.0</v>
@@ -11683,7 +11725,7 @@
         <v>38</v>
       </c>
       <c r="G10" s="59" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11">
@@ -11691,13 +11733,13 @@
         <v>15.0</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C11" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E11" s="39">
         <v>210.0</v>
@@ -11706,7 +11748,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="59" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12">
@@ -11714,13 +11756,13 @@
         <v>16.0</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E12" s="39">
         <v>185.0</v>
@@ -11729,7 +11771,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="59" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13">
@@ -11737,7 +11779,7 @@
         <v>17.0</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C13" s="39" t="s">
         <v>22</v>
@@ -11752,7 +11794,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="59" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
@@ -11760,7 +11802,7 @@
         <v>19.0</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C14" s="39" t="s">
         <v>22</v>
@@ -11775,7 +11817,7 @@
         <v>38</v>
       </c>
       <c r="G14" s="59" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -11783,13 +11825,13 @@
         <v>20.0</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C15" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E15" s="39">
         <v>135.0</v>
@@ -11798,7 +11840,7 @@
         <v>28</v>
       </c>
       <c r="G15" s="59" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16">
@@ -11806,13 +11848,13 @@
         <v>21.0</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C16" s="39" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E16" s="39">
         <v>175.0</v>
@@ -11821,7 +11863,7 @@
         <v>28</v>
       </c>
       <c r="G16" s="59" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17">
@@ -11829,13 +11871,13 @@
         <v>22.0</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C17" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E17" s="39">
         <v>145.0</v>
@@ -11844,7 +11886,7 @@
         <v>38</v>
       </c>
       <c r="G17" s="59" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18">
@@ -11852,7 +11894,7 @@
         <v>23.0</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C18" s="39" t="s">
         <v>22</v>
@@ -11867,7 +11909,7 @@
         <v>38</v>
       </c>
       <c r="G18" s="59" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19">
@@ -11875,13 +11917,13 @@
         <v>24.0</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C19" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E19" s="39">
         <v>180.0</v>
@@ -11890,7 +11932,7 @@
         <v>19</v>
       </c>
       <c r="G19" s="59" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20">
@@ -11898,7 +11940,7 @@
         <v>25.0</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C20" s="39" t="s">
         <v>16</v>
@@ -11913,7 +11955,7 @@
         <v>28</v>
       </c>
       <c r="G20" s="59" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
@@ -11921,7 +11963,7 @@
         <v>27.0</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C21" s="39" t="s">
         <v>16</v>
@@ -11936,7 +11978,7 @@
         <v>13</v>
       </c>
       <c r="G21" s="59" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22">
@@ -11944,13 +11986,13 @@
         <v>30.0</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C22" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E22" s="39">
         <v>175.0</v>
@@ -11959,7 +12001,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="59" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23">
@@ -11967,13 +12009,13 @@
         <v>37.0</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C23" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E23" s="39">
         <v>165.0</v>
@@ -11982,7 +12024,7 @@
         <v>19</v>
       </c>
       <c r="G23" s="59" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24">
@@ -11990,13 +12032,13 @@
         <v>44.0</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C24" s="62" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="62" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E24" s="62">
         <v>190.0</v>
@@ -12005,7 +12047,7 @@
         <v>19</v>
       </c>
       <c r="G24" s="63" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25">
@@ -12013,7 +12055,7 @@
         <v>57.0</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C25" s="62" t="s">
         <v>22</v>
@@ -12028,7 +12070,7 @@
         <v>13</v>
       </c>
       <c r="G25" s="63" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
@@ -12036,13 +12078,13 @@
         <v>76.0</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C26" s="62" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="62" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E26" s="62">
         <v>190.0</v>
@@ -12051,7 +12093,7 @@
         <v>38</v>
       </c>
       <c r="G26" s="63" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27">
@@ -12059,13 +12101,13 @@
         <v>91.0</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C27" s="62" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="62" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E27" s="62">
         <v>160.0</v>
@@ -12074,7 +12116,7 @@
         <v>38</v>
       </c>
       <c r="G27" s="63" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28">
@@ -12082,13 +12124,13 @@
         <v>95.0</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C28" s="65" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="65" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E28" s="65">
         <v>155.0</v>
@@ -12097,7 +12139,7 @@
         <v>19</v>
       </c>
       <c r="G28" s="66" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -12129,7 +12171,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="71" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -12149,13 +12191,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G2" s="56" t="s">
         <v>8</v>
@@ -12166,7 +12208,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C3" s="74" t="s">
         <v>10</v>
@@ -12181,7 +12223,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="75" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4">
@@ -12189,13 +12231,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="77" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C4" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E4" s="78">
         <v>155.0</v>
@@ -12204,7 +12246,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="79" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5">
@@ -12212,13 +12254,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="77" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C5" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E5" s="78">
         <v>150.0</v>
@@ -12227,7 +12269,7 @@
         <v>38</v>
       </c>
       <c r="G5" s="79" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6">
@@ -12235,13 +12277,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="77" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C6" s="78" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E6" s="78">
         <v>190.0</v>
@@ -12250,7 +12292,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="79" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7">
@@ -12258,13 +12300,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="77" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C7" s="78" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E7" s="78">
         <v>175.0</v>
@@ -12273,7 +12315,7 @@
         <v>28</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8">
@@ -12281,13 +12323,13 @@
         <v>9.0</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C8" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E8" s="78">
         <v>165.0</v>
@@ -12296,7 +12338,7 @@
         <v>28</v>
       </c>
       <c r="G8" s="79" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9">
@@ -12304,7 +12346,7 @@
         <v>10.0</v>
       </c>
       <c r="B9" s="77" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C9" s="78" t="s">
         <v>16</v>
@@ -12319,7 +12361,7 @@
         <v>28</v>
       </c>
       <c r="G9" s="79" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10">
@@ -12327,7 +12369,7 @@
         <v>12.0</v>
       </c>
       <c r="B10" s="77" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C10" s="78" t="s">
         <v>22</v>
@@ -12342,7 +12384,7 @@
         <v>28</v>
       </c>
       <c r="G10" s="79" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11">
@@ -12350,13 +12392,13 @@
         <v>13.0</v>
       </c>
       <c r="B11" s="77" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C11" s="78" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="78" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E11" s="78">
         <v>185.0</v>
@@ -12365,7 +12407,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="79" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12">
@@ -12373,13 +12415,13 @@
         <v>14.0</v>
       </c>
       <c r="B12" s="77" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C12" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E12" s="78">
         <v>180.0</v>
@@ -12388,7 +12430,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="79" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13">
@@ -12396,13 +12438,13 @@
         <v>15.0</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C13" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E13" s="78">
         <v>210.0</v>
@@ -12411,7 +12453,7 @@
         <v>19</v>
       </c>
       <c r="G13" s="79" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14">
@@ -12419,13 +12461,13 @@
         <v>16.0</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C14" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E14" s="78">
         <v>185.0</v>
@@ -12434,7 +12476,7 @@
         <v>19</v>
       </c>
       <c r="G14" s="79" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15">
@@ -12442,7 +12484,7 @@
         <v>19.0</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C15" s="78" t="s">
         <v>22</v>
@@ -12457,7 +12499,7 @@
         <v>28</v>
       </c>
       <c r="G15" s="79" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -12465,13 +12507,13 @@
         <v>20.0</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C16" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E16" s="78">
         <v>205.0</v>
@@ -12480,7 +12522,7 @@
         <v>38</v>
       </c>
       <c r="G16" s="79" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17">
@@ -12488,7 +12530,7 @@
         <v>21.0</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C17" s="78" t="s">
         <v>22</v>
@@ -12503,7 +12545,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="79" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18">
@@ -12511,13 +12553,13 @@
         <v>22.0</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C18" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E18" s="78">
         <v>145.0</v>
@@ -12526,7 +12568,7 @@
         <v>28</v>
       </c>
       <c r="G18" s="79" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19">
@@ -12534,7 +12576,7 @@
         <v>23.0</v>
       </c>
       <c r="B19" s="77" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C19" s="78" t="s">
         <v>22</v>
@@ -12549,7 +12591,7 @@
         <v>28</v>
       </c>
       <c r="G19" s="79" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20">
@@ -12557,13 +12599,13 @@
         <v>25.0</v>
       </c>
       <c r="B20" s="77" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C20" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E20" s="78">
         <v>195.0</v>
@@ -12572,7 +12614,7 @@
         <v>61</v>
       </c>
       <c r="G20" s="79" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21">
@@ -12580,13 +12622,13 @@
         <v>26.0</v>
       </c>
       <c r="B21" s="77" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C21" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E21" s="78">
         <v>165.0</v>
@@ -12595,7 +12637,7 @@
         <v>13</v>
       </c>
       <c r="G21" s="79" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22">
@@ -12603,7 +12645,7 @@
         <v>27.0</v>
       </c>
       <c r="B22" s="77" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C22" s="78" t="s">
         <v>16</v>
@@ -12618,7 +12660,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="79" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23">
@@ -12626,13 +12668,13 @@
         <v>28.0</v>
       </c>
       <c r="B23" s="77" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C23" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E23" s="78">
         <v>145.0</v>
@@ -12641,7 +12683,7 @@
         <v>38</v>
       </c>
       <c r="G23" s="79" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24">
@@ -12649,13 +12691,13 @@
         <v>30.0</v>
       </c>
       <c r="B24" s="81" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C24" s="82" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="82" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E24" s="82">
         <v>175.0</v>
@@ -12664,7 +12706,7 @@
         <v>19</v>
       </c>
       <c r="G24" s="83" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25">
@@ -12672,7 +12714,7 @@
         <v>31.0</v>
       </c>
       <c r="B25" s="81" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C25" s="82" t="s">
         <v>10</v>
@@ -12687,7 +12729,7 @@
         <v>19</v>
       </c>
       <c r="G25" s="83" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26">
@@ -12695,13 +12737,13 @@
         <v>37.0</v>
       </c>
       <c r="B26" s="81" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C26" s="82" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="82" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E26" s="82">
         <v>165.0</v>
@@ -12710,7 +12752,7 @@
         <v>38</v>
       </c>
       <c r="G26" s="83" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27">
@@ -12718,13 +12760,13 @@
         <v>44.0</v>
       </c>
       <c r="B27" s="81" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C27" s="82" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="82" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E27" s="82">
         <v>190.0</v>
@@ -12733,7 +12775,7 @@
         <v>38</v>
       </c>
       <c r="G27" s="83" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28">
@@ -12741,13 +12783,13 @@
         <v>57.0</v>
       </c>
       <c r="B28" s="77" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C28" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="78" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E28" s="78">
         <v>180.0</v>
@@ -12756,7 +12798,7 @@
         <v>19</v>
       </c>
       <c r="G28" s="79" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29">
@@ -12764,13 +12806,13 @@
         <v>76.0</v>
       </c>
       <c r="B29" s="81" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C29" s="82" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="82" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E29" s="82">
         <v>190.0</v>
@@ -12779,7 +12821,7 @@
         <v>28</v>
       </c>
       <c r="G29" s="83" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30">
@@ -12787,13 +12829,13 @@
         <v>91.0</v>
       </c>
       <c r="B30" s="81" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C30" s="82" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="82" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E30" s="82">
         <v>160.0</v>
@@ -12802,7 +12844,7 @@
         <v>28</v>
       </c>
       <c r="G30" s="83" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31">
@@ -12810,13 +12852,13 @@
         <v>95.0</v>
       </c>
       <c r="B31" s="85" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C31" s="86" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="86" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E31" s="86">
         <v>155.0</v>
@@ -12825,7 +12867,7 @@
         <v>38</v>
       </c>
       <c r="G31" s="87" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -12857,7 +12899,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="52" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -12877,16 +12919,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3">
@@ -12894,13 +12936,13 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C3" s="74" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E3" s="74">
         <v>155.0</v>
@@ -12909,7 +12951,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="75" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4">
@@ -12917,13 +12959,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="77" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C4" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E4" s="78">
         <v>150.0</v>
@@ -12932,7 +12974,7 @@
         <v>28</v>
       </c>
       <c r="G4" s="79" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5">
@@ -12940,13 +12982,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="77" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C5" s="78" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E5" s="78">
         <v>180.0</v>
@@ -12955,7 +12997,7 @@
         <v>28</v>
       </c>
       <c r="G5" s="79" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6">
@@ -12963,7 +13005,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="77" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C6" s="78" t="s">
         <v>22</v>
@@ -12978,7 +13020,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="79" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -12986,13 +13028,13 @@
         <v>7.0</v>
       </c>
       <c r="B7" s="77" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C7" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E7" s="78">
         <v>200.0</v>
@@ -13001,7 +13043,7 @@
         <v>28</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8">
@@ -13009,13 +13051,13 @@
         <v>9.0</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C8" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E8" s="78">
         <v>150.0</v>
@@ -13024,7 +13066,7 @@
         <v>38</v>
       </c>
       <c r="G8" s="79" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9">
@@ -13032,7 +13074,7 @@
         <v>11.0</v>
       </c>
       <c r="B9" s="77" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C9" s="78" t="s">
         <v>16</v>
@@ -13047,7 +13089,7 @@
         <v>38</v>
       </c>
       <c r="G9" s="79" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10">
@@ -13055,13 +13097,13 @@
         <v>13.0</v>
       </c>
       <c r="B10" s="77" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C10" s="78" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E10" s="78">
         <v>185.0</v>
@@ -13070,7 +13112,7 @@
         <v>19</v>
       </c>
       <c r="G10" s="79" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11">
@@ -13078,13 +13120,13 @@
         <v>14.0</v>
       </c>
       <c r="B11" s="77" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C11" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="78" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E11" s="78">
         <v>180.0</v>
@@ -13093,7 +13135,7 @@
         <v>19</v>
       </c>
       <c r="G11" s="79" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12">
@@ -13101,13 +13143,13 @@
         <v>15.0</v>
       </c>
       <c r="B12" s="77" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C12" s="78" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E12" s="78">
         <v>210.0</v>
@@ -13116,7 +13158,7 @@
         <v>38</v>
       </c>
       <c r="G12" s="79" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13">
@@ -13124,13 +13166,13 @@
         <v>16.0</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C13" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E13" s="78">
         <v>185.0</v>
@@ -13139,7 +13181,7 @@
         <v>38</v>
       </c>
       <c r="G13" s="79" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14">
@@ -13147,13 +13189,13 @@
         <v>17.0</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C14" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E14" s="78">
         <v>170.0</v>
@@ -13162,7 +13204,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="79" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15">
@@ -13170,7 +13212,7 @@
         <v>19.0</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C15" s="78" t="s">
         <v>22</v>
@@ -13185,7 +13227,7 @@
         <v>61</v>
       </c>
       <c r="G15" s="79" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
@@ -13193,13 +13235,13 @@
         <v>20.0</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C16" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E16" s="78">
         <v>205.0</v>
@@ -13208,7 +13250,7 @@
         <v>28</v>
       </c>
       <c r="G16" s="79" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17">
@@ -13216,7 +13258,7 @@
         <v>21.0</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C17" s="78" t="s">
         <v>22</v>
@@ -13231,7 +13273,7 @@
         <v>19</v>
       </c>
       <c r="G17" s="79" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18">
@@ -13239,13 +13281,13 @@
         <v>24.0</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C18" s="78" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E18" s="78">
         <v>200.0</v>
@@ -13254,7 +13296,7 @@
         <v>13</v>
       </c>
       <c r="G18" s="79" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19">
@@ -13262,7 +13304,7 @@
         <v>27.0</v>
       </c>
       <c r="B19" s="77" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C19" s="78" t="s">
         <v>16</v>
@@ -13277,7 +13319,7 @@
         <v>38</v>
       </c>
       <c r="G19" s="79" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20">
@@ -13285,13 +13327,13 @@
         <v>28.0</v>
       </c>
       <c r="B20" s="77" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C20" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E20" s="78">
         <v>145.0</v>
@@ -13300,7 +13342,7 @@
         <v>28</v>
       </c>
       <c r="G20" s="79" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21">
@@ -13308,13 +13350,13 @@
         <v>29.0</v>
       </c>
       <c r="B21" s="77" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C21" s="78" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E21" s="78">
         <v>170.0</v>
@@ -13323,7 +13365,7 @@
         <v>13</v>
       </c>
       <c r="G21" s="79" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22">
@@ -13331,13 +13373,13 @@
         <v>30.0</v>
       </c>
       <c r="B22" s="77" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C22" s="78" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="78" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E22" s="78">
         <v>175.0</v>
@@ -13346,7 +13388,7 @@
         <v>38</v>
       </c>
       <c r="G22" s="79" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23">
@@ -13354,7 +13396,7 @@
         <v>31.0</v>
       </c>
       <c r="B23" s="77" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C23" s="78" t="s">
         <v>10</v>
@@ -13369,7 +13411,7 @@
         <v>28</v>
       </c>
       <c r="G23" s="79" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24">
@@ -13377,13 +13419,13 @@
         <v>44.0</v>
       </c>
       <c r="B24" s="89" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C24" s="90" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="90" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E24" s="90">
         <v>190.0</v>
@@ -13392,7 +13434,7 @@
         <v>28</v>
       </c>
       <c r="G24" s="91" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/roster/Fordham Hockey Roster.xlsx
+++ b/roster/Fordham Hockey Roster.xlsx
@@ -3410,7 +3410,7 @@
     </row>
     <row r="96">
       <c r="A96" s="14" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B96" s="28" t="s">
         <v>83</v>
